--- a/social_research/data/nlsy97-educational-data/codebook.xlsx
+++ b/social_research/data/nlsy97-educational-data/codebook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\byrds\Documents\rStudio_work\social_research\data\nlsy97-educational-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00CFFFF7-3111-4B68-A53E-0969EC22545B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CBBB1C0-2ADA-4B82-A659-C777A71948F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{96BB0344-AC45-4AEA-8DBC-CEDC042C0E3E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="58">
   <si>
     <t>Codebook</t>
   </si>
@@ -180,6 +180,36 @@
   </si>
   <si>
     <t>Non-Interview</t>
+  </si>
+  <si>
+    <t>DV_RACE_BLACK</t>
+  </si>
+  <si>
+    <t>Dummy varriable for `polr` model</t>
+  </si>
+  <si>
+    <t>Is black</t>
+  </si>
+  <si>
+    <t>Not black</t>
+  </si>
+  <si>
+    <t>DV_RACE_HISPANIC</t>
+  </si>
+  <si>
+    <t>Not hispanic</t>
+  </si>
+  <si>
+    <t>Is hispanic</t>
+  </si>
+  <si>
+    <t>DV_RACE_MIXED</t>
+  </si>
+  <si>
+    <t>Is mixed</t>
+  </si>
+  <si>
+    <t>Not mixed</t>
   </si>
 </sst>
 </file>
@@ -256,21 +286,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -278,31 +304,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -310,6 +320,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -650,7 +674,7 @@
   <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -669,79 +693,79 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="E3" s="11" t="s">
+      <c r="C3" s="14"/>
+      <c r="E3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
     </row>
     <row r="4" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="9">
         <v>0</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="3" t="s">
+      <c r="D4" s="3"/>
+      <c r="E4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="9">
         <v>1</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>1</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="13" t="s">
+      <c r="D5" s="3"/>
+      <c r="E5" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>2</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="9">
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="9">
         <v>3</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -749,67 +773,67 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="6"/>
-      <c r="B7" s="15">
+      <c r="A7" s="13"/>
+      <c r="B7" s="9">
         <v>3</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="15">
+      <c r="E7" s="13"/>
+      <c r="F7" s="9">
         <v>4</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="6"/>
-      <c r="B8" s="15">
+      <c r="A8" s="13"/>
+      <c r="B8" s="9">
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="6"/>
-      <c r="B9" s="15">
+      <c r="A9" s="13"/>
+      <c r="B9" s="9">
         <v>5</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="9">
         <v>0</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="6"/>
-      <c r="B10" s="15">
+      <c r="A10" s="13"/>
+      <c r="B10" s="9">
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="15">
+      <c r="E10" s="13"/>
+      <c r="F10" s="9">
         <v>1</v>
       </c>
       <c r="G10" s="1" t="s">
@@ -817,88 +841,88 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="6"/>
-      <c r="B11" s="15">
+      <c r="A11" s="13"/>
+      <c r="B11" s="9">
         <v>7</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="9">
         <v>2</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="6" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="6"/>
-      <c r="B12" s="15">
+      <c r="A12" s="13"/>
+      <c r="B12" s="9">
         <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="9">
         <v>3</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="7"/>
-      <c r="B13" s="15">
+      <c r="A13" s="5"/>
+      <c r="B13" s="9">
         <v>9</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="6"/>
+      <c r="E13" s="13"/>
       <c r="F13" s="1">
         <v>4</v>
       </c>
-      <c r="G13" s="17" t="s">
+      <c r="G13" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B14" s="15">
+      <c r="B14" s="9">
         <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="6"/>
+      <c r="E14" s="13"/>
       <c r="F14" s="1">
         <v>5</v>
       </c>
-      <c r="G14" s="17" t="s">
+      <c r="G14" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B15" s="15">
+      <c r="B15" s="9">
         <v>11</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F15" s="1">
         <v>6</v>
       </c>
-      <c r="G15" s="17" t="s">
+      <c r="G15" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B16" s="15">
+      <c r="B16" s="9">
         <v>12</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -907,336 +931,444 @@
       <c r="F16" s="1">
         <v>7</v>
       </c>
-      <c r="G16" s="17" t="s">
+      <c r="G16" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B17" s="15">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B17" s="9">
         <v>13</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F17" s="1">
         <v>-3</v>
       </c>
-      <c r="G17" s="17" t="s">
+      <c r="G17" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B18" s="15">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B18" s="9">
         <v>14</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F18" s="1">
         <v>-4</v>
       </c>
-      <c r="G18" s="17" t="s">
+      <c r="G18" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B19" s="15">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B19" s="9">
         <v>15</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F19" s="1">
+      <c r="E19" s="10"/>
+      <c r="F19" s="10">
         <v>-5</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="G19" s="10" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B20" s="15">
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B20" s="9">
         <v>16</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B21" s="15">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B21" s="9">
         <v>17</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B22" s="15">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B22" s="9">
         <v>18</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B23" s="15">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B23" s="9">
         <v>19</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B24" s="15">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B24" s="9">
         <v>20</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B25" s="15">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B25" s="9">
         <v>95</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B26" s="15">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B26" s="9">
         <v>-3</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B27" s="15">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B27" s="9">
         <v>-4</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="9" t="s">
+    <row r="28" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="10"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="3" t="s">
+      <c r="C28" s="14"/>
+      <c r="E28" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="18"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="15">
+      <c r="B29" s="9">
         <v>0</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="13" t="s">
+      <c r="E29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I29" s="17"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="4">
         <v>1</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="6" t="s">
+      <c r="E30" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I30" s="17"/>
+    </row>
+    <row r="31" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="15">
+      <c r="B31" s="9">
         <v>2</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="6"/>
-      <c r="B32" s="15">
+      <c r="E31" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="I31" s="17"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" s="13"/>
+      <c r="B32" s="9">
         <v>3</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="6"/>
-      <c r="B33" s="15">
+      <c r="E32" s="13"/>
+      <c r="I32" s="17"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" s="13"/>
+      <c r="B33" s="9">
         <v>4</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="6"/>
-      <c r="B34" s="15">
+      <c r="E33" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="18"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" s="13"/>
+      <c r="B34" s="9">
         <v>5</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" s="6"/>
-      <c r="B35" s="15">
+      <c r="E34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I34" s="17"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" s="13"/>
+      <c r="B35" s="9">
         <v>6</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" s="6"/>
-      <c r="B36" s="15">
+      <c r="E35" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I35" s="17"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" s="13"/>
+      <c r="B36" s="9">
         <v>7</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="6"/>
-      <c r="B37" s="15">
+      <c r="E36" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="I36" s="17"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37" s="13"/>
+      <c r="B37" s="9">
         <v>8</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" s="6"/>
-      <c r="B38" s="15">
+      <c r="E37" s="13"/>
+      <c r="I37" s="17"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38" s="13"/>
+      <c r="B38" s="9">
         <v>9</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B39" s="15">
+      <c r="E38" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="18"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B39" s="9">
         <v>10</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B40" s="15">
+      <c r="E39" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B40" s="9">
         <v>11</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B41" s="15">
+      <c r="E40" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F40" s="1">
+        <v>1</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B41" s="9">
         <v>12</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B42" s="15">
+      <c r="E41" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B42" s="9">
         <v>13</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B43" s="15">
+      <c r="E42" s="13"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B43" s="9">
         <v>14</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B44" s="15">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B44" s="9">
         <v>15</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B45" s="15">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B45" s="9">
         <v>16</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B46" s="15">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B46" s="9">
         <v>17</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B47" s="15">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B47" s="9">
         <v>18</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B48" s="15">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B48" s="9">
         <v>19</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B49" s="15">
+      <c r="B49" s="9">
         <v>20</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C49" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B50" s="15">
+      <c r="B50" s="9">
         <v>95</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C50" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B51" s="15">
+      <c r="B51" s="9">
         <v>-3</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" s="18"/>
-      <c r="B52" s="19">
+      <c r="A52" s="10"/>
+      <c r="B52" s="11">
         <v>-4</v>
       </c>
-      <c r="C52" s="20" t="s">
+      <c r="C52" s="12" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="15">
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="F38:H38"/>
     <mergeCell ref="A31:A38"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B28:C28"/>
@@ -1246,6 +1378,8 @@
     <mergeCell ref="A6:A12"/>
     <mergeCell ref="F8:I8"/>
     <mergeCell ref="E12:E14"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="E36:E37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
